--- a/VocabolariControllati/public-event-types/public-event-types.xlsx
+++ b/VocabolariControllati/public-event-types/public-event-types.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgialodi/Dropbox/OntoPiA/EventiPubblici/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgialodi/Desktop/AGID/NuovoDATIGOV/DAF/Git/OntologieVocabolariControllati/VocabolariControllati/public-event-types/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE131BC1-6427-DA49-8E33-8D097DBEC07C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA474C-4D8D-0245-96D9-EF362111081C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{428B79BD-67F6-484C-96F4-F73B1CE52F32}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Terzo livello" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -982,9 +981,6 @@
   </si>
   <si>
     <t>Sport show</t>
-  </si>
-  <si>
-    <t>Maniferstazioni sportive</t>
   </si>
   <si>
     <t>Sport shows</t>
@@ -1181,6 +1177,9 @@
   </si>
   <si>
     <t>Political procession / strike</t>
+  </si>
+  <si>
+    <t>Manifestazioni sportive</t>
   </si>
 </sst>
 </file>
@@ -1619,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21961AD0-8627-8E4C-A7C3-A119FB0EA6A3}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N51" zoomScale="149" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="149" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1744,7 +1743,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>22</v>
@@ -1794,7 +1793,7 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>22</v>
@@ -1846,7 +1845,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>22</v>
@@ -1906,7 +1905,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>22</v>
@@ -1966,7 +1965,7 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>22</v>
@@ -2026,7 +2025,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>22</v>
@@ -2080,7 +2079,7 @@
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>22</v>
@@ -2134,7 +2133,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>22</v>
@@ -2146,7 +2145,7 @@
         <v>53</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>54</v>
@@ -2194,7 +2193,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>22</v>
@@ -2250,7 +2249,7 @@
         <v>206</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>64</v>
@@ -2259,10 +2258,10 @@
         <v>65</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>67</v>
@@ -2306,7 +2305,7 @@
         <v>206</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>64</v>
@@ -2360,7 +2359,7 @@
         <v>206</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>64</v>
@@ -2416,7 +2415,7 @@
         <v>206</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>64</v>
@@ -2472,7 +2471,7 @@
         <v>206</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>64</v>
@@ -2487,7 +2486,7 @@
         <v>81</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2528,7 +2527,7 @@
         <v>206</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>64</v>
@@ -2588,7 +2587,7 @@
         <v>205</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>124</v>
@@ -2597,7 +2596,7 @@
         <v>121</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>79</v>
@@ -2606,7 +2605,7 @@
         <v>126</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2646,7 +2645,7 @@
         <v>205</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>124</v>
@@ -2661,10 +2660,10 @@
         <v>129</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="208">
@@ -2702,7 +2701,7 @@
         <v>205</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>124</v>
@@ -2751,7 +2750,7 @@
         <v>148</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>149</v>
@@ -2769,7 +2768,7 @@
         <v>98</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>139</v>
@@ -2786,7 +2785,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>140</v>
@@ -2831,7 +2830,7 @@
         <v>153</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>160</v>
@@ -2848,7 +2847,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>140</v>
@@ -2904,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>140</v>
@@ -2940,13 +2939,13 @@
         <v>168</v>
       </c>
       <c r="O23" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="Q23" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>170</v>
@@ -2960,7 +2959,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>140</v>
@@ -3010,7 +3009,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>140</v>
@@ -3046,7 +3045,7 @@
         <v>178</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>181</v>
@@ -3066,7 +3065,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>140</v>
@@ -3102,7 +3101,7 @@
         <v>183</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>184</v>
@@ -3116,7 +3115,7 @@
         <v>93</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>140</v>
@@ -3140,7 +3139,7 @@
         <v>106</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>188</v>
@@ -3158,10 +3157,10 @@
         <v>197</v>
       </c>
       <c r="S27" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="144">
@@ -3172,7 +3171,7 @@
         <v>93</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>140</v>
@@ -3196,7 +3195,7 @@
         <v>106</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>188</v>
@@ -3225,7 +3224,7 @@
         <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>140</v>
@@ -3249,7 +3248,7 @@
         <v>106</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>188</v>
@@ -3275,7 +3274,7 @@
         <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>140</v>
@@ -3299,7 +3298,7 @@
         <v>106</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>188</v>
@@ -3308,13 +3307,13 @@
         <v>192</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>208</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="144">
@@ -3325,7 +3324,7 @@
         <v>93</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>140</v>
@@ -3349,7 +3348,7 @@
         <v>106</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>188</v>
@@ -3375,7 +3374,7 @@
         <v>93</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>140</v>
@@ -3399,7 +3398,7 @@
         <v>106</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>188</v>
@@ -3425,7 +3424,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>140</v>
@@ -3450,7 +3449,7 @@
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>219</v>
@@ -3476,7 +3475,7 @@
         <v>93</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>140</v>
@@ -3501,7 +3500,7 @@
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>219</v>
@@ -3527,7 +3526,7 @@
         <v>93</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>140</v>
@@ -3552,7 +3551,7 @@
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>219</v>
@@ -3578,7 +3577,7 @@
         <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>140</v>
@@ -3603,7 +3602,7 @@
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>219</v>
@@ -3629,7 +3628,7 @@
         <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>140</v>
@@ -3654,7 +3653,7 @@
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>219</v>
@@ -3680,7 +3679,7 @@
         <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>140</v>
@@ -3705,7 +3704,7 @@
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>219</v>
@@ -3723,10 +3722,10 @@
         <v>231</v>
       </c>
       <c r="S38" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="T38" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="80">
@@ -3737,7 +3736,7 @@
         <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>140</v>
@@ -3762,7 +3761,7 @@
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>219</v>
@@ -3815,7 +3814,7 @@
         <v>256</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>257</v>
@@ -3880,7 +3879,7 @@
         <v>263</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>264</v>
@@ -3974,7 +3973,7 @@
         <v>274</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>275</v>
@@ -4283,34 +4282,34 @@
         <v>114</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>315</v>
       </c>
       <c r="J49" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>307</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="64">
@@ -4342,28 +4341,28 @@
         <v>315</v>
       </c>
       <c r="J50" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>312</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="64">
@@ -4395,28 +4394,28 @@
         <v>315</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>313</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="64">
@@ -4448,28 +4447,28 @@
         <v>315</v>
       </c>
       <c r="J52" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="N52" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="64">
@@ -4501,28 +4500,28 @@
         <v>315</v>
       </c>
       <c r="J53" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="N53" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="64">
@@ -4554,28 +4553,28 @@
         <v>315</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="N54" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -5281,7 +5280,7 @@
         <v>307</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5289,7 +5288,7 @@
         <v>312</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5297,31 +5296,31 @@
         <v>313</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/VocabolariControllati/public-event-types/public-event-types.xlsx
+++ b/VocabolariControllati/public-event-types/public-event-types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgialodi/Desktop/AGID/NuovoDATIGOV/DAF/Git/OntologieVocabolariControllati/VocabolariControllati/public-event-types/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA474C-4D8D-0245-96D9-EF362111081C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE87171-3B49-F349-BB1F-32DEDC88B2A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{428B79BD-67F6-484C-96F4-F73B1CE52F32}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="371">
   <si>
     <t>Codice_1_livello</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Label_ENG_3_livello</t>
   </si>
   <si>
-    <t>Label_3_livello_alternativa_2</t>
-  </si>
-  <si>
     <t>Evento culturale</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Spettacoli teatrali</t>
   </si>
   <si>
-    <t>teatro</t>
-  </si>
-  <si>
     <t>1.1.4</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Spettacoli di danza</t>
   </si>
   <si>
-    <t>danza</t>
-  </si>
-  <si>
     <t>1.1.5</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>Proiezioni cinematografiche</t>
   </si>
   <si>
-    <t>cinema</t>
-  </si>
-  <si>
     <t>1.1.9</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t>All types of events and shows regarding cinema are included in this concept</t>
   </si>
   <si>
-    <t>Defnizione_ITA</t>
-  </si>
-  <si>
     <t>Evento d'affari o commerciale</t>
   </si>
   <si>
@@ -392,12 +377,6 @@
     <t>Corsi</t>
   </si>
   <si>
-    <t>In questo concetto rientrano anche  corsi su materie spercifiche come per esempio corsi musiciali, corsi di teatro, corsi di danza,  o corsi sportivi</t>
-  </si>
-  <si>
-    <t>Yhis concept also includes  courses on specific subject such as  teather courses, dance courses, sport ccourses, music courses, etc.)</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -476,9 +455,6 @@
     <t>Label_ITA_2_livello_alternativa</t>
   </si>
   <si>
-    <t>Label__ENG_2_livello_alternativa</t>
-  </si>
-  <si>
     <t>Info day</t>
   </si>
   <si>
@@ -497,9 +473,6 @@
     <t>Cerimonie</t>
   </si>
   <si>
-    <t>Label_3_livello_alternativa_1</t>
-  </si>
-  <si>
     <t>2.1.2</t>
   </si>
   <si>
@@ -575,9 +548,6 @@
     <t>Riunione esperti/portatori interesse</t>
   </si>
   <si>
-    <t>Riunioni epersti/portatori interesse</t>
-  </si>
-  <si>
     <t>Experts / stakeholdesr meeting</t>
   </si>
   <si>
@@ -593,9 +563,6 @@
     <t>Raduno di comunità</t>
   </si>
   <si>
-    <t>Raduno di cominità</t>
-  </si>
-  <si>
     <t>Community gathering</t>
   </si>
   <si>
@@ -626,9 +593,6 @@
     <t>Parade</t>
   </si>
   <si>
-    <t>Siflate</t>
-  </si>
-  <si>
     <t>Sagra</t>
   </si>
   <si>
@@ -668,9 +632,6 @@
     <t>Market / Street market</t>
   </si>
   <si>
-    <t>Mecarti / Mercatini</t>
-  </si>
-  <si>
     <t>Commemorazioni</t>
   </si>
   <si>
@@ -785,9 +746,6 @@
     <t>Incontri politici</t>
   </si>
   <si>
-    <t xml:space="preserve">Questo concetto include eventi politici che coinvolgono il pubbico </t>
-  </si>
-  <si>
     <t>Evento pubblico generalmente riconducibile all'iniziativa di partito/movimento politico focalizzato prevalentemente sulla funzione aggregativa di un gruppo o comunità</t>
   </si>
   <si>
@@ -827,9 +785,6 @@
     <t>Corteo / sciopero</t>
   </si>
   <si>
-    <t>Cortei / sicoperi</t>
-  </si>
-  <si>
     <t>Electoral speech</t>
   </si>
   <si>
@@ -948,9 +903,6 @@
   </si>
   <si>
     <t>This concept includes all those commercial events that have a public impact and that happen seasonaly (e.g., sales)</t>
-  </si>
-  <si>
-    <t>Questo concetto include quegli eventi commerciali di impatto pubbico che avvengono solo stagionalmente come i saldi</t>
   </si>
   <si>
     <t>Evento sportivo</t>
@@ -1101,9 +1053,6 @@
     <t>Giornate informative</t>
   </si>
   <si>
-    <t>Questo concetto include eventi politici che coinvolgono il pubbico.</t>
-  </si>
-  <si>
     <t>Questo concetto include eventi pubblici quali expo, fiere, saloni orientati al business.</t>
   </si>
   <si>
@@ -1180,13 +1129,58 @@
   </si>
   <si>
     <t>Manifestazioni sportive</t>
+  </si>
+  <si>
+    <t>Label_ENG_2_livello_alternativa</t>
+  </si>
+  <si>
+    <t>Cortei / scioperi</t>
+  </si>
+  <si>
+    <t>This concept also includes  courses on specific subject such as  teather courses, dance courses, sport courses, music courses, etc.)</t>
+  </si>
+  <si>
+    <t>In questo concetto rientrano anche  corsi su materie specifiche come per esempio corsi musicali, corsi di teatro, corsi di danza,  o corsi sportivi</t>
+  </si>
+  <si>
+    <t>Sfilate</t>
+  </si>
+  <si>
+    <t>Mercati / Mercatini</t>
+  </si>
+  <si>
+    <t>Mercato / Mercatino</t>
+  </si>
+  <si>
+    <t>Questo concetto include eventi politici che coinvolgono il pubblico.</t>
+  </si>
+  <si>
+    <t>Questo concetto include quegli eventi commerciali di impatto pubblico che avvengono solo stagionalmente come i saldi</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Teatro</t>
+  </si>
+  <si>
+    <t>Danza</t>
+  </si>
+  <si>
+    <t>Label_3_livello_alternativa_1_ITA</t>
+  </si>
+  <si>
+    <t>Label_3_livello_alternativa_2_ITA</t>
+  </si>
+  <si>
+    <t>Label_3_livello_alternativa_2_ENG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1211,13 +1205,6 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1278,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1292,13 +1279,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1616,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21961AD0-8627-8E4C-A7C3-A119FB0EA6A3}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="149" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1640,12 +1626,13 @@
     <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.1640625" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="29">
+    <row r="1" spans="1:21" ht="29">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1674,10 +1661,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>4</v>
@@ -1695,2621 +1682,2640 @@
         <v>11</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-    </row>
-    <row r="2" spans="1:23" ht="192">
+    </row>
+    <row r="2" spans="1:21" ht="192">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="192">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="192">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="192">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="192">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="192">
+        <v>78</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="192">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="R5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="192">
+        <v>367</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="192">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="192">
+        <v>82</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="192">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="192">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="192">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="192">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="192">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="192">
+        <v>84</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="192">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="112">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="112">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="O11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="112">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="112">
       <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="112">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="112">
       <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="112">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="112">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="112">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="112">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="112">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="112">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="S16" s="1"/>
       <c r="T16" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="208">
+        <v>359</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="208">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="S17" s="1"/>
+        <v>336</v>
+      </c>
+      <c r="S17" s="2"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" ht="208">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="208">
       <c r="A18" s="3">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="T18" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="208">
+        <v>337</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="208">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S19" s="1"/>
+        <v>126</v>
+      </c>
       <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" ht="112">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="112">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="64">
+        <v>127</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" ht="64">
       <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O21" s="2" t="s">
+      <c r="S21" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="64">
+    </row>
+    <row r="22" spans="1:21" ht="64">
       <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="112">
+        <v>150</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" ht="112">
       <c r="A23" s="3">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="P23" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="112">
+        <v>347</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="112">
       <c r="A24" s="3">
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="P24" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="80">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="80">
       <c r="A25" s="3">
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="80">
+        <v>343</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="80">
       <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="144">
+    </row>
+    <row r="27" spans="1:21" ht="144">
       <c r="A27" s="3">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="144">
+        <v>348</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="144">
       <c r="A28" s="3">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="P28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="144">
+    </row>
+    <row r="29" spans="1:21" ht="144">
       <c r="A29" s="3">
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="Q29" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="144">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="144">
       <c r="A30" s="3">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="144">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="144">
       <c r="A31" s="3">
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>209</v>
+        <v>362</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="144">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="144">
       <c r="A32" s="3">
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="80">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="80">
       <c r="A33" s="3">
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K33" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="80">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="80">
       <c r="A34" s="3">
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K34" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="K34" s="9"/>
       <c r="L34" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="80">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="80">
       <c r="A35" s="3">
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K35" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="K35" s="9"/>
       <c r="L35" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="80">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="80">
       <c r="A36" s="3">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K36" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="K36" s="9"/>
       <c r="L36" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="P36" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="80">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="80">
       <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="80">
+    </row>
+    <row r="38" spans="1:21" ht="80">
       <c r="A38" s="3">
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="T38" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="80">
+        <v>352</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="80">
       <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K39" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="K39" s="9"/>
       <c r="L39" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="Q39" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="96">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="96">
       <c r="A40" s="3">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="96">
+    </row>
+    <row r="41" spans="1:21" ht="96">
       <c r="A41" s="3">
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="P41" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="96">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="96">
       <c r="A42" s="3">
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="P42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="48">
+    </row>
+    <row r="43" spans="1:21" ht="48">
       <c r="A43" s="3">
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="48">
+        <v>258</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="48">
       <c r="A44" s="3">
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="80">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="80">
       <c r="A45" s="3">
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="P45" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="80">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="80">
       <c r="A46" s="3">
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="O46" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="80">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="80">
       <c r="A47" s="3">
         <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="64">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="64">
       <c r="A48" s="3">
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="L48" s="2" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>299</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="S48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="64">
       <c r="A49" s="3">
         <v>5</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="P49" s="2" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="64">
@@ -4317,52 +4323,52 @@
         <v>5</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="64">
@@ -4370,52 +4376,52 @@
         <v>5</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="Q51" s="2" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="64">
@@ -4423,52 +4429,52 @@
         <v>5</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="64">
@@ -4476,52 +4482,52 @@
         <v>5</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="P53" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q53" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="64">
@@ -4529,52 +4535,52 @@
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q54" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4630,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4638,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4646,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4654,7 +4660,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4662,7 +4668,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4694,130 +4700,130 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4849,478 +4855,478 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
